--- a/film_insight/data/rottentomatoes_data.xlsx
+++ b/film_insight/data/rottentomatoes_data.xlsx
@@ -38,7 +38,7 @@
     <t>content</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>year</t>
   </si>
   <si>
     <t>pianist</t>
@@ -4808,8 +4808,8 @@
   <sheetPr/>
   <dimension ref="A1:D1399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A1378" workbookViewId="0">
+      <selection activeCell="G1392" sqref="G1392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
